--- a/Assignment 1/data/q3.xlsx
+++ b/Assignment 1/data/q3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="number-of-hops" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>us2</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Correls</t>
+  </si>
+  <si>
+    <t>ETHZ</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>IITD</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Facebook</t>
   </si>
 </sst>
 </file>
@@ -104,6 +122,1412 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ETH Zurich</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Waterloo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cape Town</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>IIT Delhi</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Google</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Facebook</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'number-of-hops'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'number-of-hops'!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="131595264"/>
+        <c:axId val="239215360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="131595264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="239215360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239215360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131595264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ETH Zurich</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>87.807000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282.68400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.371000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.542</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.493000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156.22499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Waterloo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30.622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.882999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.86799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259.42099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117.285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.46899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.953000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Cape Town</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>226.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.87899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.36699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199.41499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.398000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>411.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197.761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159.852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316.9778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>IIT Delhi</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>318.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318.04599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>298.38200000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191.36600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.839</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>312.87599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Google</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>188.792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.82900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>412.51100000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256.584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>275.00299999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.755</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Facebook</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>latency!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>us2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>us1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>uk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ukraine</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>switzerland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sweden</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>south_africa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>new_zealand</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>greece</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>germany</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>czech</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>latency!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>77.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.855999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.44099999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>265.52300000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116.61199999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>126.871</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.954000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="241867008"/>
+        <c:axId val="241881088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="241867008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="241881088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="241881088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="241867008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>343546</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Number of Hops"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>94297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,30 +1819,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,6 +2123,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -707,29 +2132,29 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,6 +2435,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1017,7 +2443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/Assignment 1/data/q3.xlsx
+++ b/Assignment 1/data/q3.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="number-of-hops" sheetId="1" r:id="rId1"/>
     <sheet name="latency" sheetId="2" r:id="rId2"/>
     <sheet name="correlation" sheetId="3" r:id="rId3"/>
+    <sheet name="india" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>us2</t>
   </si>
@@ -73,6 +74,27 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t># of hops</t>
+  </si>
+  <si>
+    <t># of local hops</t>
+  </si>
+  <si>
+    <t>total latency</t>
+  </si>
+  <si>
+    <t>local latency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>% of local to total</t>
+  </si>
+  <si>
+    <t>% of local to total latency</t>
   </si>
 </sst>
 </file>
@@ -736,11 +758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="131595264"/>
-        <c:axId val="239215360"/>
+        <c:axId val="235473536"/>
+        <c:axId val="235483520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="131595264"/>
+        <c:axId val="235473536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239215360"/>
+        <c:crossAx val="235483520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239215360"/>
+        <c:axId val="235483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131595264"/>
+        <c:crossAx val="235473536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -805,7 +827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1406,11 +1427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="241867008"/>
-        <c:axId val="241881088"/>
+        <c:axId val="235999616"/>
+        <c:axId val="236001152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="241867008"/>
+        <c:axId val="235999616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1440,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241881088"/>
+        <c:crossAx val="236001152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1448,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="241881088"/>
+        <c:axId val="236001152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,14 +1459,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="241867008"/>
+        <c:crossAx val="235999616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1819,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2501,4 +2521,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <f>100*C2/B2</f>
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>1556</v>
+      </c>
+      <c r="F2">
+        <v>190</v>
+      </c>
+      <c r="G2">
+        <f>100*F2/E2</f>
+        <v>12.210796915167094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">100*C3/B3</f>
+        <v>47.058823529411768</v>
+      </c>
+      <c r="E3">
+        <v>2510</v>
+      </c>
+      <c r="F3">
+        <v>1310</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">100*F3/E3</f>
+        <v>52.191235059760956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>399</v>
+      </c>
+      <c r="F4">
+        <v>225</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>56.390977443609025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>47.058823529411768</v>
+      </c>
+      <c r="E5">
+        <v>381</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>18.897637795275589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>590</v>
+      </c>
+      <c r="F6">
+        <v>82</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>13.898305084745763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>42.10526315789474</v>
+      </c>
+      <c r="E7">
+        <v>750</v>
+      </c>
+      <c r="F7">
+        <v>188</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>25.066666666666666</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assignment 1/data/q3.xlsx
+++ b/Assignment 1/data/q3.xlsx
@@ -10,7 +10,7 @@
     <sheet name="number-of-hops" sheetId="1" r:id="rId1"/>
     <sheet name="latency" sheetId="2" r:id="rId2"/>
     <sheet name="correlation" sheetId="3" r:id="rId3"/>
-    <sheet name="india" sheetId="4" r:id="rId4"/>
+    <sheet name="local-isp" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -758,11 +758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="235473536"/>
-        <c:axId val="235483520"/>
+        <c:axId val="248589312"/>
+        <c:axId val="248603392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235473536"/>
+        <c:axId val="248589312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +771,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235483520"/>
+        <c:crossAx val="248603392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235483520"/>
+        <c:axId val="248603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,14 +790,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235473536"/>
+        <c:crossAx val="248589312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1427,11 +1426,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="235999616"/>
-        <c:axId val="236001152"/>
+        <c:axId val="249107200"/>
+        <c:axId val="249108736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235999616"/>
+        <c:axId val="249107200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1439,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236001152"/>
+        <c:crossAx val="249108736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1448,7 +1447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236001152"/>
+        <c:axId val="249108736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1458,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235999616"/>
+        <c:crossAx val="249107200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,7 +2527,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
